--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE47F4F-A6AB-4C3E-AA36-D060545D7C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BE210-6727-48FA-96C7-1573C6CE60F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,14 +115,14 @@
     <t>Semestre:</t>
   </si>
   <si>
-    <t>ene-jun2020</t>
-  </si>
-  <si>
     <t>Proyecto
 Final</t>
   </si>
   <si>
     <t>Calificación Final</t>
+  </si>
+  <si>
+    <t>may-ago 2020</t>
   </si>
 </sst>
 </file>
@@ -960,16 +960,54 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,66 +1057,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1089,21 +1092,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,18 +1796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -1815,27 +1815,27 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
@@ -1854,50 +1854,50 @@
       <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="99"/>
+      <c r="I5" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="47"/>
       <c r="H7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
@@ -1912,40 +1912,40 @@
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="49" t="s">
         <v>7</v>
       </c>
@@ -2924,11 +2924,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
       <c r="D71" s="56"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
@@ -2960,27 +2960,20 @@
       <c r="A74" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="109"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SCenSuD99Q7yt5xX/Kvj/xBqnM19Ae0+Gx8buDDZNUBkm/pOnf/1B1snTJLQEKCfh06Sh52CbvQaQZ2yc5XumA==" saltValue="EpZtuqPngnkXmsuphgKXfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="20">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I7:J7"/>
@@ -2994,6 +2987,13 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="G74:J74"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -3021,18 +3021,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -3040,27 +3040,27 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
@@ -3079,66 +3079,66 @@
       <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="126" t="str">
+      <c r="C5" s="128" t="str">
         <f>IF(Hoja1!C5="","",Hoja1!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="123" t="str">
+      <c r="I5" s="129" t="str">
         <f>IF(Hoja1!I5="","",Hoja1!I5)</f>
-        <v>ene-jun2020</v>
-      </c>
-      <c r="J5" s="123"/>
+        <v>may-ago 2020</v>
+      </c>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="124" t="str">
+      <c r="C6" s="126" t="str">
         <f>IF(Hoja1!C6="","",Hoja1!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="125" t="str">
+      <c r="I6" s="127" t="str">
         <f>IF(Hoja1!K6="","",Hoja1!K6)</f>
         <v/>
       </c>
-      <c r="J6" s="125"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="122" t="str">
+      <c r="C7" s="130" t="str">
         <f>IF(Hoja1!C7="","",Hoja1!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="47"/>
       <c r="H7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="123" t="str">
+      <c r="I7" s="129" t="str">
         <f>IF(Hoja1!K7="","",Hoja1!K7)</f>
         <v/>
       </c>
-      <c r="J7" s="123"/>
+      <c r="J7" s="129"/>
     </row>
     <row r="8" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
@@ -3153,40 +3153,40 @@
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="49" t="s">
         <v>7</v>
       </c>
@@ -3406,9 +3406,9 @@
       <c r="A24" s="67">
         <v>74</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="90"/>
       <c r="F24" s="91"/>
       <c r="G24" s="88"/>
@@ -3422,9 +3422,9 @@
       <c r="A25" s="67">
         <v>75</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="90"/>
       <c r="F25" s="91"/>
       <c r="G25" s="88"/>
@@ -3438,9 +3438,9 @@
       <c r="A26" s="67">
         <v>76</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="92"/>
       <c r="F26" s="93"/>
       <c r="G26" s="89"/>
@@ -3454,9 +3454,9 @@
       <c r="A27" s="67">
         <v>77</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="90"/>
       <c r="F27" s="91"/>
       <c r="G27" s="88"/>
@@ -3470,9 +3470,9 @@
       <c r="A28" s="67">
         <v>78</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="92"/>
       <c r="F28" s="93"/>
       <c r="G28" s="89"/>
@@ -3486,9 +3486,9 @@
       <c r="A29" s="67">
         <v>79</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="92"/>
       <c r="F29" s="93"/>
       <c r="G29" s="89"/>
@@ -3502,9 +3502,9 @@
       <c r="A30" s="67">
         <v>80</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="92"/>
       <c r="F30" s="93"/>
       <c r="G30" s="89"/>
@@ -3518,9 +3518,9 @@
       <c r="A31" s="67">
         <v>81</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="92"/>
       <c r="F31" s="93"/>
       <c r="G31" s="89"/>
@@ -3534,9 +3534,9 @@
       <c r="A32" s="67">
         <v>82</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="90"/>
       <c r="F32" s="91"/>
       <c r="G32" s="88"/>
@@ -3550,9 +3550,9 @@
       <c r="A33" s="67">
         <v>83</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="90"/>
       <c r="F33" s="91"/>
       <c r="G33" s="88"/>
@@ -3566,9 +3566,9 @@
       <c r="A34" s="67">
         <v>84</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="92"/>
       <c r="F34" s="93"/>
       <c r="G34" s="89"/>
@@ -3582,9 +3582,9 @@
       <c r="A35" s="67">
         <v>85</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="90"/>
       <c r="F35" s="91"/>
       <c r="G35" s="88"/>
@@ -3598,9 +3598,9 @@
       <c r="A36" s="67">
         <v>86</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="92"/>
       <c r="F36" s="93"/>
       <c r="G36" s="89"/>
@@ -3614,9 +3614,9 @@
       <c r="A37" s="67">
         <v>87</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="92"/>
       <c r="F37" s="93"/>
       <c r="G37" s="89"/>
@@ -3630,9 +3630,9 @@
       <c r="A38" s="67">
         <v>88</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="92"/>
       <c r="F38" s="93"/>
       <c r="G38" s="89"/>
@@ -3646,9 +3646,9 @@
       <c r="A39" s="67">
         <v>89</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
       <c r="E39" s="90"/>
       <c r="F39" s="91"/>
       <c r="G39" s="88"/>
@@ -3662,9 +3662,9 @@
       <c r="A40" s="67">
         <v>90</v>
       </c>
-      <c r="B40" s="135"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="90"/>
       <c r="F40" s="91"/>
       <c r="G40" s="88"/>
@@ -3678,9 +3678,9 @@
       <c r="A41" s="67">
         <v>91</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="90"/>
       <c r="F41" s="91"/>
       <c r="G41" s="88"/>
@@ -3694,9 +3694,9 @@
       <c r="A42" s="67">
         <v>92</v>
       </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="92"/>
       <c r="F42" s="93"/>
       <c r="G42" s="89"/>
@@ -3710,9 +3710,9 @@
       <c r="A43" s="67">
         <v>93</v>
       </c>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="90"/>
       <c r="F43" s="91"/>
       <c r="G43" s="88"/>
@@ -3726,9 +3726,9 @@
       <c r="A44" s="67">
         <v>94</v>
       </c>
-      <c r="B44" s="135"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="92"/>
       <c r="F44" s="93"/>
       <c r="G44" s="89"/>
@@ -3742,9 +3742,9 @@
       <c r="A45" s="67">
         <v>95</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="90"/>
       <c r="F45" s="91"/>
       <c r="G45" s="88"/>
@@ -3759,8 +3759,8 @@
         <v>96</v>
       </c>
       <c r="B46" s="75"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="92"/>
       <c r="F46" s="93"/>
       <c r="G46" s="89"/>
@@ -3775,8 +3775,8 @@
         <v>97</v>
       </c>
       <c r="B47" s="75"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="92"/>
       <c r="F47" s="93"/>
       <c r="G47" s="89"/>
@@ -3791,8 +3791,8 @@
         <v>98</v>
       </c>
       <c r="B48" s="75"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="92"/>
       <c r="F48" s="93"/>
       <c r="G48" s="89"/>
@@ -3807,8 +3807,8 @@
         <v>99</v>
       </c>
       <c r="B49" s="75"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="92"/>
       <c r="F49" s="93"/>
       <c r="G49" s="89"/>
@@ -3823,8 +3823,8 @@
         <v>100</v>
       </c>
       <c r="B50" s="75"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="92"/>
       <c r="F50" s="93"/>
       <c r="G50" s="89"/>
@@ -3839,8 +3839,8 @@
         <v>101</v>
       </c>
       <c r="B51" s="75"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="92"/>
       <c r="F51" s="93"/>
       <c r="G51" s="89"/>
@@ -3855,8 +3855,8 @@
         <v>102</v>
       </c>
       <c r="B52" s="75"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="92"/>
       <c r="F52" s="93"/>
       <c r="G52" s="89"/>
@@ -3871,8 +3871,8 @@
         <v>103</v>
       </c>
       <c r="B53" s="75"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="92"/>
       <c r="F53" s="93"/>
       <c r="G53" s="89"/>
@@ -3887,8 +3887,8 @@
         <v>104</v>
       </c>
       <c r="B54" s="75"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
       <c r="E54" s="92"/>
       <c r="F54" s="93"/>
       <c r="G54" s="89"/>
@@ -3903,8 +3903,8 @@
         <v>105</v>
       </c>
       <c r="B55" s="75"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="92"/>
       <c r="F55" s="93"/>
       <c r="G55" s="89"/>
@@ -3919,8 +3919,8 @@
         <v>106</v>
       </c>
       <c r="B56" s="75"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="92"/>
       <c r="F56" s="93"/>
       <c r="G56" s="89"/>
@@ -3935,8 +3935,8 @@
         <v>107</v>
       </c>
       <c r="B57" s="75"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="92"/>
       <c r="F57" s="93"/>
       <c r="G57" s="89"/>
@@ -3951,8 +3951,8 @@
         <v>108</v>
       </c>
       <c r="B58" s="75"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="92"/>
       <c r="F58" s="93"/>
       <c r="G58" s="89"/>
@@ -3967,8 +3967,8 @@
         <v>109</v>
       </c>
       <c r="B59" s="75"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
       <c r="E59" s="92"/>
       <c r="F59" s="93"/>
       <c r="G59" s="89"/>
@@ -3983,8 +3983,8 @@
         <v>110</v>
       </c>
       <c r="B60" s="75"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="92"/>
       <c r="F60" s="93"/>
       <c r="G60" s="89"/>
@@ -3999,8 +3999,8 @@
         <v>111</v>
       </c>
       <c r="B61" s="75"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="92"/>
       <c r="F61" s="93"/>
       <c r="G61" s="89"/>
@@ -4015,8 +4015,8 @@
         <v>112</v>
       </c>
       <c r="B62" s="75"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="92"/>
       <c r="F62" s="93"/>
       <c r="G62" s="89"/>
@@ -4031,8 +4031,8 @@
         <v>113</v>
       </c>
       <c r="B63" s="75"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="92"/>
       <c r="F63" s="93"/>
       <c r="G63" s="89"/>
@@ -4047,8 +4047,8 @@
         <v>114</v>
       </c>
       <c r="B64" s="75"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="92"/>
       <c r="F64" s="93"/>
       <c r="G64" s="89"/>
@@ -4063,8 +4063,8 @@
         <v>115</v>
       </c>
       <c r="B65" s="75"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="92"/>
       <c r="F65" s="93"/>
       <c r="G65" s="89"/>
@@ -4079,8 +4079,8 @@
         <v>116</v>
       </c>
       <c r="B66" s="75"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="92"/>
       <c r="F66" s="93"/>
       <c r="G66" s="89"/>
@@ -4095,8 +4095,8 @@
         <v>117</v>
       </c>
       <c r="B67" s="75"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="92"/>
       <c r="F67" s="93"/>
       <c r="G67" s="89"/>
@@ -4111,8 +4111,8 @@
         <v>118</v>
       </c>
       <c r="B68" s="75"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
       <c r="E68" s="92"/>
       <c r="F68" s="93"/>
       <c r="G68" s="89"/>
@@ -4127,8 +4127,8 @@
         <v>119</v>
       </c>
       <c r="B69" s="75"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="92"/>
       <c r="F69" s="93"/>
       <c r="G69" s="89"/>
@@ -4143,8 +4143,8 @@
         <v>120</v>
       </c>
       <c r="B70" s="78"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="138"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="100"/>
       <c r="E70" s="94"/>
       <c r="F70" s="95"/>
       <c r="G70" s="96"/>
@@ -4155,11 +4155,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
       <c r="D71" s="57" t="str">
         <f>IF(Hoja1!D71="","",Hoja1!D71)</f>
         <v/>
@@ -4194,27 +4194,20 @@
       <c r="A74" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="109"/>
       <c r="E74" s="62"/>
       <c r="F74" s="62"/>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6+POL6vDlem5hsUDuZ4RMRZsrfnX9sMwChNgfPmPc4vshbirXBdJKAR3etkJgdpUaLajq9nqiUjM73l7e7IxPQ==" saltValue="kHQrEM7VgXQjl7H4dQ2nWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="20">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -4228,6 +4221,13 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -4274,20 +4274,20 @@
       <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
@@ -4309,20 +4309,20 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
@@ -4342,16 +4342,16 @@
       <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="130" t="str">
+      <c r="C6" s="135" t="str">
         <f>IF(Hoja1!C5="","",Hoja1!C5)</f>
         <v/>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4359,48 +4359,48 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="132" t="str">
+      <c r="C7" s="131" t="str">
         <f>IF(Hoja1!C6="","",Hoja1!C6)</f>
         <v/>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="48"/>
       <c r="J7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="131" t="str">
+      <c r="K7" s="132" t="str">
         <f>IF(Hoja1!I5="","",Hoja1!I5)</f>
-        <v>ene-jun2020</v>
-      </c>
-      <c r="L7" s="131"/>
+        <v>may-ago 2020</v>
+      </c>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="130" t="str">
+      <c r="C8" s="135" t="str">
         <f>IF(Hoja1!C7="","",Hoja1!C7)</f>
         <v/>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
       <c r="I8" s="47"/>
       <c r="J8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="131" t="str">
+      <c r="K8" s="132" t="str">
         <f>IF(Hoja1!I7="","",Hoja1!I7)</f>
         <v/>
       </c>
-      <c r="L8" s="131"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
@@ -4416,44 +4416,44 @@
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="112" t="s">
+      <c r="I10" s="123"/>
+      <c r="J10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="113"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="49" t="s">
         <v>7</v>
       </c>
@@ -5529,11 +5529,11 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="127" t="s">
+      <c r="A62" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
       <c r="D62" s="57" t="str">
         <f>IF(Hoja1!D71="","",Hoja1!D71)</f>
         <v/>
@@ -5563,34 +5563,27 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
-      <c r="H65" s="129" t="s">
+      <c r="H65" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="129"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="138"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0pbJ7DWPtSHRxBMlil2Zpc9jYwccwBd33UyxLwdchEToXvvLYwmYGA0JHmhl2WKsOFn7dTwPEoUar2dDV/RWaQ==" saltValue="Gnm8dXeJ6gr0D8NmE+C11A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="22">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="C65:D65"/>
@@ -5606,6 +5599,13 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1970E-BBC4-4679-8C2A-529375085E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6886B-3B74-4535-97D7-4A46A0ACAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="28">
   <si>
     <t>UNIVERSIDAD CIUDADANA DE NUEVO LEÓN</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Firma Tutor</t>
+  </si>
+  <si>
+    <t>REGULARIZACIÓN</t>
+  </si>
+  <si>
+    <t>APRECIACIÓN</t>
+  </si>
+  <si>
+    <t>AUTO-EVALUACIÓN</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -597,11 +606,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -777,6 +812,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -825,6 +873,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +889,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,10 +911,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -884,7 +944,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>48283</xdr:rowOff>
+      <xdr:rowOff>42568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -956,9 +1016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197704</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>193894</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,14 +1067,14 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>48283</xdr:rowOff>
+      <xdr:rowOff>42568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C7C1F0-80B8-40B3-80B2-EA44B4DF298C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB974F8-5760-4727-A3AE-DFD6A5AC5963}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="40005"/>
-          <a:ext cx="1076325" cy="560728"/>
+          <a:off x="30480" y="40005"/>
+          <a:ext cx="1074420" cy="558823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,7 +1139,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197704</xdr:colOff>
+      <xdr:colOff>193894</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1088,7 +1148,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66082015-60EE-4141-9921-52EAE20F2713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA52411-1667-429E-BBA4-63329B2C65A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6276975" y="47625"/>
-          <a:ext cx="1550254" cy="504825"/>
+          <a:off x="6286500" y="45720"/>
+          <a:ext cx="1542634" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,9 +1440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -1397,144 +1460,154 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="I9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="J9" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="10" t="s">
+      <c r="K9" s="76"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>1</v>
       </c>
@@ -1542,14 +1615,16 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -1557,14 +1632,16 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -1572,14 +1649,16 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>4</v>
       </c>
@@ -1587,14 +1666,16 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>5</v>
       </c>
@@ -1602,14 +1683,16 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>6</v>
       </c>
@@ -1617,14 +1700,16 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>7</v>
       </c>
@@ -1632,14 +1717,16 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>8</v>
       </c>
@@ -1647,14 +1734,16 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>9</v>
       </c>
@@ -1662,14 +1751,16 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>10</v>
       </c>
@@ -1677,14 +1768,16 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>11</v>
       </c>
@@ -1692,14 +1785,16 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>12</v>
       </c>
@@ -1707,14 +1802,16 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>13</v>
       </c>
@@ -1722,14 +1819,16 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>14</v>
       </c>
@@ -1737,14 +1836,16 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>15</v>
       </c>
@@ -1752,14 +1853,16 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>16</v>
       </c>
@@ -1767,14 +1870,16 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>17</v>
       </c>
@@ -1782,14 +1887,16 @@
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>18</v>
       </c>
@@ -1797,14 +1904,16 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>19</v>
       </c>
@@ -1812,14 +1921,16 @@
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>20</v>
       </c>
@@ -1827,14 +1938,16 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>21</v>
       </c>
@@ -1842,14 +1955,16 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>22</v>
       </c>
@@ -1857,14 +1972,16 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>23</v>
       </c>
@@ -1872,14 +1989,16 @@
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>24</v>
       </c>
@@ -1887,14 +2006,16 @@
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>25</v>
       </c>
@@ -1902,14 +2023,16 @@
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>26</v>
       </c>
@@ -1917,14 +2040,16 @@
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>27</v>
       </c>
@@ -1932,14 +2057,16 @@
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>28</v>
       </c>
@@ -1947,14 +2074,16 @@
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>29</v>
       </c>
@@ -1962,14 +2091,16 @@
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>30</v>
       </c>
@@ -1977,14 +2108,16 @@
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>31</v>
       </c>
@@ -1992,14 +2125,16 @@
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>32</v>
       </c>
@@ -2007,14 +2142,16 @@
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>33</v>
       </c>
@@ -2022,14 +2159,16 @@
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>34</v>
       </c>
@@ -2037,14 +2176,16 @@
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>35</v>
       </c>
@@ -2052,14 +2193,16 @@
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>36</v>
       </c>
@@ -2067,14 +2210,16 @@
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>37</v>
       </c>
@@ -2082,14 +2227,16 @@
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>38</v>
       </c>
@@ -2097,14 +2244,16 @@
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>39</v>
       </c>
@@ -2112,14 +2261,16 @@
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <f>A49+1</f>
         <v>40</v>
@@ -2128,14 +2279,16 @@
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <f t="shared" ref="A51:A59" si="0">A50+1</f>
         <v>41</v>
@@ -2144,14 +2297,16 @@
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2160,14 +2315,16 @@
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2176,14 +2333,16 @@
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2192,14 +2351,16 @@
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2208,14 +2369,16 @@
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2224,14 +2387,16 @@
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2240,14 +2405,16 @@
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2256,14 +2423,16 @@
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2272,14 +2441,16 @@
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>50</v>
       </c>
@@ -2287,14 +2458,16 @@
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>51</v>
       </c>
@@ -2302,14 +2475,16 @@
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>52</v>
       </c>
@@ -2317,14 +2492,16 @@
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>53</v>
       </c>
@@ -2332,14 +2509,16 @@
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>54</v>
       </c>
@@ -2347,14 +2526,16 @@
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>55</v>
       </c>
@@ -2362,14 +2543,16 @@
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>56</v>
       </c>
@@ -2377,14 +2560,16 @@
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>57</v>
       </c>
@@ -2392,14 +2577,16 @@
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>58</v>
       </c>
@@ -2407,14 +2594,16 @@
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>59</v>
       </c>
@@ -2422,14 +2611,16 @@
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>60</v>
       </c>
@@ -2437,19 +2628,21 @@
       <c r="C70" s="40"/>
       <c r="D70" s="41"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
@@ -2458,7 +2651,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="49" t="s">
         <v>22</v>
       </c>
@@ -2466,29 +2659,29 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
       <c r="J73" s="50"/>
     </row>
-    <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="54" t="s">
+      <c r="G74" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="A1:J1"/>
@@ -2506,21 +2699,26 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BE6F8C-7B43-43A7-AABF-FBD0520EC578}">
-  <dimension ref="A1:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E3F86-C72E-4D02-BF08-6D741E5CD31E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,1049 +2732,1189 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="I9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="J9" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="10" t="s">
+      <c r="K9" s="76"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>63</v>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>3</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>65</v>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>5</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>67</v>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>7</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>69</v>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>9</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>71</v>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>11</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>73</v>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>13</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>75</v>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>15</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>77</v>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>17</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>79</v>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>19</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>81</v>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>21</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>83</v>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>23</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>85</v>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>25</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>87</v>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>27</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>89</v>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>29</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>91</v>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>31</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>93</v>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>33</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>95</v>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>35</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>97</v>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>37</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>99</v>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>39</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
-        <v>100</v>
+        <f>A49+1</f>
+        <v>40</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
-        <v>101</v>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <f t="shared" ref="A51:A59" si="0">A50+1</f>
+        <v>41</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
-        <v>103</v>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
-        <v>105</v>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>107</v>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <v>109</v>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>110</v>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
+        <v>50</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>111</v>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>51</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>112</v>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
+        <v>52</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
-        <v>113</v>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
+        <v>53</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>114</v>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
+        <v>54</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>115</v>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
+        <v>55</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
-        <v>116</v>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="37">
+        <v>56</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>117</v>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37">
+        <v>57</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
-        <v>118</v>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="37">
+        <v>58</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>119</v>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37">
+        <v>59</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20">
-        <v>120</v>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
+        <v>60</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="40"/>
       <c r="D70" s="41"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
@@ -3585,7 +3923,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="49" t="s">
         <v>22</v>
       </c>
@@ -3593,29 +3931,29 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
       <c r="J73" s="50"/>
     </row>
-    <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="54" t="s">
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="A1:J1"/>
@@ -3623,6 +3961,7 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -3633,11 +3972,12 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6886B-3B74-4535-97D7-4A46A0ACAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A480F7A-E64E-4547-8514-70284FCBD3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>APRECIACIÓN</t>
   </si>
   <si>
-    <t>AUTO-EVALUACIÓN</t>
+    <t>PUNTOS EXTRA</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -825,76 +825,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -913,6 +849,73 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,18 +1464,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1480,27 +1483,27 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="5"/>
@@ -1509,97 +1512,97 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="71" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="74"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -2638,11 +2641,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
@@ -2669,26 +2672,19 @@
       <c r="A74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -2703,6 +2699,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2717,8 +2720,8 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,18 +2736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2752,27 +2755,27 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="52"/>
@@ -2781,97 +2784,97 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:11" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="71" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="53" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="74"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -3910,11 +3913,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
@@ -3941,26 +3944,19 @@
       <c r="A74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="52"/>
       <c r="F74" s="52"/>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -3975,6 +3971,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55256C7-6F20-4EAA-9B67-17B3FF69B190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB017197-C85D-4DD6-A09B-0D137165C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,6 +825,19 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -833,6 +846,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -904,29 +927,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1537,57 +1537,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="4"/>
@@ -1596,97 +1596,97 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="73" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="78"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="41" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2725,11 +2725,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -2756,16 +2756,16 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2820,57 +2820,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="40"/>
@@ -2879,97 +2879,97 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="73" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="78"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="44" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -3998,11 +3998,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -4029,16 +4029,16 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="40"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4093,48 +4093,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="45"/>
@@ -4143,97 +4143,97 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="73" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="78"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="46" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -5262,11 +5262,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -5293,16 +5293,16 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB017197-C85D-4DD6-A09B-0D137165C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260D0BC-5DF1-48A7-A525-C4427DE341C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,7 +972,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -980,13 +980,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,21 +1021,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect t="235" b="235"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955447" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="6952849" y="44707"/>
+          <a:ext cx="454871" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,7 +1075,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1083,13 +1083,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,21 +1124,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect t="235" b="235"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955447" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="6952849" y="44707"/>
+          <a:ext cx="454871" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,7 +1178,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1186,13 +1186,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7915" t="27293" r="67234" b="33364"/>
+        <a:srcRect t="121" b="121"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="73269" y="21980"/>
-          <a:ext cx="1171395" cy="574433"/>
+          <a:ext cx="1180054" cy="576165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,21 +1227,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="76528" t="17588" r="7752" b="18173"/>
+        <a:srcRect t="235" b="235"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955447" y="44707"/>
-          <a:ext cx="455737" cy="571450"/>
+          <a:off x="6952849" y="44707"/>
+          <a:ext cx="454871" cy="573182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,7 +2804,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -4077,7 +4077,7 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260D0BC-5DF1-48A7-A525-C4427DE341C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C946F88-F194-420A-8EF6-B05040778850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -832,16 +832,86 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -859,73 +929,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,55 +949,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4536D885-0BD8-43E9-A206-50B3A69AD8E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="121" b="121"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1022,7 +976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1044,30 +998,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>81928</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>57534</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="864892" cy="569664"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
+        <xdr:cNvPr id="9" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BD4654-649D-4EBB-9851-B05FFC349A9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A44AB7-01F2-45F3-9587-578CC7BE802D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,20 +1020,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="121" b="121"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
+          <a:off x="81928" y="57534"/>
+          <a:ext cx="864892" cy="569664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1097,7 +1041,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1113,10 +1062,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24232BB6-DB36-47A7-B21D-8743A8736D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CA53A3-9BCE-4D04-968C-2398431FCF06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1147,30 +1096,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>81928</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>57534</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292164</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="864892" cy="569664"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="5" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96911F22-2ED8-452C-9337-B59898B8C899}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF75B11F-3C58-4B1E-AD9C-4CBE57F4D981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,20 +1118,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="121" b="121"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73269" y="21980"/>
-          <a:ext cx="1180054" cy="576165"/>
+          <a:off x="81928" y="57534"/>
+          <a:ext cx="864892" cy="569664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,7 +1139,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1216,10 +1160,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADD7281-1425-4DE0-AB5A-1050C0526EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9396F8F9-E146-4300-A5ED-93B54A1456A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1250,6 +1194,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81928</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57534</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864892" cy="569664"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F3D009-54D6-4DE1-BBCA-4777EB65D89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81928" y="57534"/>
+          <a:ext cx="864892" cy="569664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1537,18 +1525,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
       <c r="M1" s="56"/>
@@ -1559,12 +1547,12 @@
       <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="59"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="57"/>
@@ -1573,120 +1561,120 @@
       <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="4"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="41" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2725,11 +2713,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -2756,19 +2744,26 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -2783,13 +2778,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2820,18 +2808,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
       <c r="M1" s="56"/>
@@ -2842,12 +2830,12 @@
       <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="59"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="57"/>
@@ -2856,120 +2844,120 @@
       <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="40"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="44" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -3998,11 +3986,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -4029,19 +4017,26 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="40"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -4056,13 +4051,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4093,18 +4081,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
@@ -4112,128 +4100,128 @@
       <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="59"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="45"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="46" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -5262,11 +5250,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -5293,26 +5281,19 @@
       <c r="A74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -5327,6 +5308,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\uc\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ucnl\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C946F88-F194-420A-8EF6-B05040778850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97785CEF-4DA9-4983-8325-F6C3A5869C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,9 +756,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -841,23 +838,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,22 +927,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1525,156 +1526,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="62"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="83"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="41" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1690,12 +1691,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1707,12 +1708,12 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1724,12 +1725,12 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1741,12 +1742,12 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1758,12 +1759,12 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="49"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1775,12 +1776,12 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1792,12 +1793,12 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1809,12 +1810,12 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1826,12 +1827,12 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1843,12 +1844,12 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1860,12 +1861,12 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="49"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1877,12 +1878,12 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="49"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1894,12 +1895,12 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1907,16 +1908,16 @@
       <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="48" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1924,16 +1925,16 @@
       <c r="A25" s="17">
         <v>15</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="48" t="s">
+      <c r="I25" s="48"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1941,16 +1942,16 @@
       <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1958,16 +1959,16 @@
       <c r="A27" s="17">
         <v>17</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="48" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1975,16 +1976,16 @@
       <c r="A28" s="17">
         <v>18</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1992,16 +1993,16 @@
       <c r="A29" s="17">
         <v>19</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2009,16 +2010,16 @@
       <c r="A30" s="17">
         <v>20</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2026,16 +2027,16 @@
       <c r="A31" s="17">
         <v>21</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2043,16 +2044,16 @@
       <c r="A32" s="17">
         <v>22</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="48" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2060,16 +2061,16 @@
       <c r="A33" s="17">
         <v>23</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="48" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2077,16 +2078,16 @@
       <c r="A34" s="17">
         <v>24</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2094,16 +2095,16 @@
       <c r="A35" s="17">
         <v>25</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="48" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2111,16 +2112,16 @@
       <c r="A36" s="17">
         <v>26</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2128,16 +2129,16 @@
       <c r="A37" s="17">
         <v>27</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2145,16 +2146,16 @@
       <c r="A38" s="17">
         <v>28</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2162,16 +2163,16 @@
       <c r="A39" s="17">
         <v>29</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="48" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2179,16 +2180,16 @@
       <c r="A40" s="17">
         <v>30</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="48" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2196,16 +2197,16 @@
       <c r="A41" s="17">
         <v>31</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="48" t="s">
+      <c r="I41" s="48"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2213,16 +2214,16 @@
       <c r="A42" s="17">
         <v>32</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2230,16 +2231,16 @@
       <c r="A43" s="17">
         <v>33</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="48" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2247,16 +2248,16 @@
       <c r="A44" s="17">
         <v>34</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2264,16 +2265,16 @@
       <c r="A45" s="17">
         <v>35</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="48" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2282,15 +2283,15 @@
         <v>36</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2299,15 +2300,15 @@
         <v>37</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="48" t="s">
+      <c r="K47" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2316,15 +2317,15 @@
         <v>38</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2333,15 +2334,15 @@
         <v>39</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2351,15 +2352,15 @@
         <v>40</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2369,15 +2370,15 @@
         <v>41</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2387,15 +2388,15 @@
         <v>42</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="48" t="s">
+      <c r="K52" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2405,15 +2406,15 @@
         <v>43</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2423,15 +2424,15 @@
         <v>44</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2441,15 +2442,15 @@
         <v>45</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="48" t="s">
+      <c r="K55" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2459,15 +2460,15 @@
         <v>46</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="48" t="s">
+      <c r="K56" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2477,15 +2478,15 @@
         <v>47</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2495,15 +2496,15 @@
         <v>48</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="48" t="s">
+      <c r="K58" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2513,15 +2514,15 @@
         <v>49</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="48" t="s">
+      <c r="K59" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2530,15 +2531,15 @@
         <v>50</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="48" t="s">
+      <c r="K60" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2547,15 +2548,15 @@
         <v>51</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="48" t="s">
+      <c r="K61" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2564,15 +2565,15 @@
         <v>52</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2581,15 +2582,15 @@
         <v>53</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="48" t="s">
+      <c r="K63" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2598,15 +2599,15 @@
         <v>54</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="48" t="s">
+      <c r="K64" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2615,15 +2616,15 @@
         <v>55</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2632,15 +2633,15 @@
         <v>56</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="48" t="s">
+      <c r="K66" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2649,15 +2650,15 @@
         <v>57</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="48" t="s">
+      <c r="K67" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2666,15 +2667,15 @@
         <v>58</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2683,15 +2684,15 @@
         <v>59</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2700,70 +2701,63 @@
         <v>60</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="55" t="s">
+      <c r="K70" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
     </row>
     <row r="73" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="65" t="s">
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -2778,6 +2772,13 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2808,156 +2809,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="62"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="40"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="83"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="44" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2973,12 +2974,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2990,12 +2991,12 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3007,12 +3008,12 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3024,12 +3025,12 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3041,12 +3042,12 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="49"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3058,12 +3059,12 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3075,12 +3076,12 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3092,12 +3093,12 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3109,12 +3110,12 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3126,12 +3127,12 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3143,12 +3144,12 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="49"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3160,12 +3161,12 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="49"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3177,12 +3178,12 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3190,16 +3191,16 @@
       <c r="A24" s="17">
         <v>74</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="48" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3207,16 +3208,16 @@
       <c r="A25" s="11">
         <v>75</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="48" t="s">
+      <c r="I25" s="48"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3224,16 +3225,16 @@
       <c r="A26" s="17">
         <v>76</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3241,16 +3242,16 @@
       <c r="A27" s="11">
         <v>77</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="48" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3258,16 +3259,16 @@
       <c r="A28" s="17">
         <v>78</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3275,16 +3276,16 @@
       <c r="A29" s="11">
         <v>79</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3292,16 +3293,16 @@
       <c r="A30" s="17">
         <v>80</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3309,16 +3310,16 @@
       <c r="A31" s="11">
         <v>81</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3326,16 +3327,16 @@
       <c r="A32" s="17">
         <v>82</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="48" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3343,16 +3344,16 @@
       <c r="A33" s="11">
         <v>83</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="48" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3360,16 +3361,16 @@
       <c r="A34" s="17">
         <v>84</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3377,16 +3378,16 @@
       <c r="A35" s="11">
         <v>85</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="48" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3394,16 +3395,16 @@
       <c r="A36" s="17">
         <v>86</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3411,16 +3412,16 @@
       <c r="A37" s="11">
         <v>87</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3428,16 +3429,16 @@
       <c r="A38" s="17">
         <v>88</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3445,16 +3446,16 @@
       <c r="A39" s="11">
         <v>89</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="48" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3462,16 +3463,16 @@
       <c r="A40" s="17">
         <v>90</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="48" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3479,16 +3480,16 @@
       <c r="A41" s="11">
         <v>91</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="48" t="s">
+      <c r="I41" s="48"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3496,16 +3497,16 @@
       <c r="A42" s="17">
         <v>92</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3513,16 +3514,16 @@
       <c r="A43" s="11">
         <v>93</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="48" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3530,16 +3531,16 @@
       <c r="A44" s="17">
         <v>94</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3547,16 +3548,16 @@
       <c r="A45" s="11">
         <v>95</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="48" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3565,15 +3566,15 @@
         <v>96</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3582,15 +3583,15 @@
         <v>97</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="48" t="s">
+      <c r="K47" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3599,15 +3600,15 @@
         <v>98</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3616,15 +3617,15 @@
         <v>99</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3633,15 +3634,15 @@
         <v>100</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3650,15 +3651,15 @@
         <v>101</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3667,15 +3668,15 @@
         <v>102</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="48" t="s">
+      <c r="K52" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3684,15 +3685,15 @@
         <v>103</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3701,15 +3702,15 @@
         <v>104</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3718,15 +3719,15 @@
         <v>105</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="48" t="s">
+      <c r="K55" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3735,15 +3736,15 @@
         <v>106</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="48" t="s">
+      <c r="K56" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3752,15 +3753,15 @@
         <v>107</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3769,15 +3770,15 @@
         <v>108</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="48" t="s">
+      <c r="K58" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3786,15 +3787,15 @@
         <v>109</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="48" t="s">
+      <c r="K59" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3803,15 +3804,15 @@
         <v>110</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="48" t="s">
+      <c r="K60" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3820,15 +3821,15 @@
         <v>111</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="48" t="s">
+      <c r="K61" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3837,15 +3838,15 @@
         <v>112</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3854,15 +3855,15 @@
         <v>113</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="48" t="s">
+      <c r="K63" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3871,15 +3872,15 @@
         <v>114</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="48" t="s">
+      <c r="K64" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3888,15 +3889,15 @@
         <v>115</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3905,15 +3906,15 @@
         <v>116</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="48" t="s">
+      <c r="K66" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3922,15 +3923,15 @@
         <v>117</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="48" t="s">
+      <c r="K67" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3939,15 +3940,15 @@
         <v>118</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3956,15 +3957,15 @@
         <v>119</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3973,70 +3974,63 @@
         <v>120</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="55" t="s">
+      <c r="K70" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
     </row>
     <row r="73" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="65" t="s">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -4051,6 +4045,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4081,147 +4082,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="62"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="45"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="83"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="46" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
@@ -4237,12 +4238,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4254,12 +4255,12 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4271,12 +4272,12 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4288,12 +4289,12 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4305,12 +4306,12 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="49"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4322,12 +4323,12 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4339,12 +4340,12 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4356,12 +4357,12 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4373,12 +4374,12 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4390,12 +4391,12 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4407,12 +4408,12 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="49"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4424,12 +4425,12 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="49"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4441,12 +4442,12 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4454,16 +4455,16 @@
       <c r="A24" s="17">
         <v>134</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="48" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4471,16 +4472,16 @@
       <c r="A25" s="11">
         <v>135</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="48" t="s">
+      <c r="I25" s="48"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4488,16 +4489,16 @@
       <c r="A26" s="17">
         <v>136</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4505,16 +4506,16 @@
       <c r="A27" s="11">
         <v>137</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="48" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4522,16 +4523,16 @@
       <c r="A28" s="17">
         <v>138</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4539,16 +4540,16 @@
       <c r="A29" s="11">
         <v>139</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4556,16 +4557,16 @@
       <c r="A30" s="17">
         <v>140</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4573,16 +4574,16 @@
       <c r="A31" s="11">
         <v>141</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4590,16 +4591,16 @@
       <c r="A32" s="17">
         <v>142</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="48" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4607,16 +4608,16 @@
       <c r="A33" s="11">
         <v>143</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="48" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4624,16 +4625,16 @@
       <c r="A34" s="17">
         <v>144</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4641,16 +4642,16 @@
       <c r="A35" s="11">
         <v>145</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="48" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4658,16 +4659,16 @@
       <c r="A36" s="17">
         <v>146</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4675,16 +4676,16 @@
       <c r="A37" s="11">
         <v>147</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4692,16 +4693,16 @@
       <c r="A38" s="17">
         <v>148</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4709,16 +4710,16 @@
       <c r="A39" s="11">
         <v>149</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="48" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4726,16 +4727,16 @@
       <c r="A40" s="17">
         <v>150</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="48" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4743,16 +4744,16 @@
       <c r="A41" s="11">
         <v>151</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="48" t="s">
+      <c r="I41" s="48"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4760,16 +4761,16 @@
       <c r="A42" s="17">
         <v>152</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4777,16 +4778,16 @@
       <c r="A43" s="11">
         <v>153</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="48" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4794,16 +4795,16 @@
       <c r="A44" s="17">
         <v>154</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4811,16 +4812,16 @@
       <c r="A45" s="11">
         <v>155</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="48" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4829,15 +4830,15 @@
         <v>156</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4846,15 +4847,15 @@
         <v>157</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="48" t="s">
+      <c r="K47" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4863,15 +4864,15 @@
         <v>158</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4880,15 +4881,15 @@
         <v>159</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4897,15 +4898,15 @@
         <v>160</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4914,15 +4915,15 @@
         <v>161</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4931,15 +4932,15 @@
         <v>162</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="48" t="s">
+      <c r="K52" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4948,15 +4949,15 @@
         <v>163</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4965,15 +4966,15 @@
         <v>164</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4982,15 +4983,15 @@
         <v>165</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="48" t="s">
+      <c r="K55" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4999,15 +5000,15 @@
         <v>166</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="48" t="s">
+      <c r="K56" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5016,15 +5017,15 @@
         <v>167</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5033,15 +5034,15 @@
         <v>168</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="48" t="s">
+      <c r="K58" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5050,15 +5051,15 @@
         <v>169</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="48" t="s">
+      <c r="K59" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5067,15 +5068,15 @@
         <v>170</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="48" t="s">
+      <c r="K60" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5084,15 +5085,15 @@
         <v>171</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="48" t="s">
+      <c r="K61" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5101,15 +5102,15 @@
         <v>172</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5118,15 +5119,15 @@
         <v>173</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="48" t="s">
+      <c r="K63" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5135,15 +5136,15 @@
         <v>174</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="48" t="s">
+      <c r="K64" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5152,15 +5153,15 @@
         <v>175</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5169,15 +5170,15 @@
         <v>176</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="48" t="s">
+      <c r="K66" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5186,15 +5187,15 @@
         <v>177</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="48" t="s">
+      <c r="K67" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5203,15 +5204,15 @@
         <v>178</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5220,15 +5221,15 @@
         <v>179</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5237,63 +5238,70 @@
         <v>180</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="55" t="s">
+      <c r="K70" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
     </row>
     <row r="73" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="65" t="s">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -5308,13 +5316,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/formato_mae.xlsx
+++ b/public/formato_mae.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ucnl\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\web\ucnl\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97785CEF-4DA9-4983-8325-F6C3A5869C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67FE70-4481-45FA-BEA5-60EC5FCF8B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="28">
   <si>
     <t>UNIVERSIDAD CIUDADANA DE NUEVO LEÓN</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Periodo:</t>
-  </si>
-  <si>
-    <t>may-ago 2020</t>
   </si>
   <si>
     <t>Carrera:</t>
@@ -638,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -764,9 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,15 +771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -830,18 +815,85 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -858,77 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1526,161 +1507,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="D2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="58"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="61"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="68"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="E9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="F9" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="I9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="86" t="s">
+      <c r="G10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,13 +1670,13 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="47" t="s">
-        <v>20</v>
+      <c r="K11" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,13 +1687,13 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="47" t="s">
-        <v>20</v>
+      <c r="K12" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,13 +1704,13 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="47" t="s">
-        <v>20</v>
+      <c r="K13" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,13 +1721,13 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="47" t="s">
-        <v>20</v>
+      <c r="K14" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,13 +1738,13 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="47" t="s">
-        <v>20</v>
+      <c r="K15" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,13 +1755,13 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="47" t="s">
-        <v>20</v>
+      <c r="K16" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,13 +1772,13 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="47" t="s">
-        <v>20</v>
+      <c r="K17" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,13 +1789,13 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="47" t="s">
-        <v>20</v>
+      <c r="K18" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,13 +1806,13 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="47" t="s">
-        <v>20</v>
+      <c r="K19" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,13 +1823,13 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="47" t="s">
-        <v>20</v>
+      <c r="K20" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,13 +1840,13 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="47" t="s">
-        <v>20</v>
+      <c r="K21" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,13 +1857,13 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="47" t="s">
-        <v>20</v>
+      <c r="K22" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,387 +1874,387 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="47" t="s">
-        <v>20</v>
+      <c r="K23" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="47" t="s">
-        <v>20</v>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>15</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="47" t="s">
-        <v>20</v>
+      <c r="I25" s="44"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="47" t="s">
-        <v>20</v>
+      <c r="K26" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>17</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="47" t="s">
-        <v>20</v>
+      <c r="I27" s="44"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>18</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47" t="s">
-        <v>20</v>
+      <c r="K28" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>19</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="47" t="s">
-        <v>20</v>
+      <c r="K29" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>20</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47" t="s">
-        <v>20</v>
+      <c r="K30" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>21</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="47" t="s">
-        <v>20</v>
+      <c r="K31" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>22</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="47" t="s">
-        <v>20</v>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>23</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="47" t="s">
-        <v>20</v>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>24</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="47" t="s">
-        <v>20</v>
+      <c r="K34" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>25</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="47" t="s">
-        <v>20</v>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>26</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="47" t="s">
-        <v>20</v>
+      <c r="K36" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>27</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="47" t="s">
-        <v>20</v>
+      <c r="K37" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>28</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47" t="s">
-        <v>20</v>
+      <c r="K38" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>29</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="47" t="s">
-        <v>20</v>
+      <c r="I39" s="44"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>30</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="47" t="s">
-        <v>20</v>
+      <c r="I40" s="44"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>31</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="47" t="s">
-        <v>20</v>
+      <c r="I41" s="44"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>32</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47" t="s">
-        <v>20</v>
+      <c r="K42" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>33</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="47" t="s">
-        <v>20</v>
+      <c r="I43" s="44"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>34</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="47" t="s">
-        <v>20</v>
+      <c r="K44" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>35</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="47" t="s">
-        <v>20</v>
+      <c r="I45" s="44"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,16 +2262,16 @@
         <v>36</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="47" t="s">
-        <v>20</v>
+      <c r="K46" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,16 +2279,16 @@
         <v>37</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="47" t="s">
-        <v>20</v>
+      <c r="K47" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,16 +2296,16 @@
         <v>38</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="47" t="s">
-        <v>20</v>
+      <c r="K48" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,16 +2313,16 @@
         <v>39</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="47" t="s">
-        <v>20</v>
+      <c r="K49" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,16 +2331,16 @@
         <v>40</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="47" t="s">
-        <v>20</v>
+      <c r="K50" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2370,16 +2349,16 @@
         <v>41</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="47" t="s">
-        <v>20</v>
+      <c r="K51" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,16 +2367,16 @@
         <v>42</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="47" t="s">
-        <v>20</v>
+      <c r="K52" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,16 +2385,16 @@
         <v>43</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="47" t="s">
-        <v>20</v>
+      <c r="K53" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,16 +2403,16 @@
         <v>44</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="47" t="s">
-        <v>20</v>
+      <c r="K54" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,16 +2421,16 @@
         <v>45</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="47" t="s">
-        <v>20</v>
+      <c r="K55" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,16 +2439,16 @@
         <v>46</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="47" t="s">
-        <v>20</v>
+      <c r="K56" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,16 +2457,16 @@
         <v>47</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="47" t="s">
-        <v>20</v>
+      <c r="K57" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,16 +2475,16 @@
         <v>48</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="47" t="s">
-        <v>20</v>
+      <c r="K58" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2514,16 +2493,16 @@
         <v>49</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="47" t="s">
-        <v>20</v>
+      <c r="K59" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2531,16 +2510,16 @@
         <v>50</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="47" t="s">
-        <v>20</v>
+      <c r="K60" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,16 +2527,16 @@
         <v>51</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="47" t="s">
-        <v>20</v>
+      <c r="K61" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,16 +2544,16 @@
         <v>52</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="47" t="s">
-        <v>20</v>
+      <c r="K62" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,16 +2561,16 @@
         <v>53</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="47" t="s">
-        <v>20</v>
+      <c r="K63" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,16 +2578,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="47" t="s">
-        <v>20</v>
+      <c r="K64" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,16 +2595,16 @@
         <v>55</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="47" t="s">
-        <v>20</v>
+      <c r="K65" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,16 +2612,16 @@
         <v>56</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="47" t="s">
-        <v>20</v>
+      <c r="K66" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,16 +2629,16 @@
         <v>57</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="47" t="s">
-        <v>20</v>
+      <c r="K67" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,16 +2646,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="47" t="s">
-        <v>20</v>
+      <c r="K68" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2684,16 +2663,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="47" t="s">
-        <v>20</v>
+      <c r="K69" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2701,25 +2680,25 @@
         <v>60</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="54" t="s">
+      <c r="K70" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -2729,7 +2708,7 @@
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -2743,21 +2722,28 @@
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
+        <v>22</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="G74" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="G74:J74"/>
@@ -2772,13 +2758,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2809,161 +2788,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="D2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="58"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="61"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="68"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="E9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="F9" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="I9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="86" t="s">
+      <c r="G10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,13 +2951,13 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="47" t="s">
-        <v>20</v>
+      <c r="K11" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2991,13 +2968,13 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="47" t="s">
-        <v>20</v>
+      <c r="K12" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3008,13 +2985,13 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="47" t="s">
-        <v>20</v>
+      <c r="K13" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3025,13 +3002,13 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="47" t="s">
-        <v>20</v>
+      <c r="K14" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,13 +3019,13 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="47" t="s">
-        <v>20</v>
+      <c r="K15" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,13 +3036,13 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="47" t="s">
-        <v>20</v>
+      <c r="K16" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3076,13 +3053,13 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="47" t="s">
-        <v>20</v>
+      <c r="K17" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,13 +3070,13 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="47" t="s">
-        <v>20</v>
+      <c r="K18" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,13 +3087,13 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="47" t="s">
-        <v>20</v>
+      <c r="K19" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,13 +3104,13 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="47" t="s">
-        <v>20</v>
+      <c r="K20" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,13 +3121,13 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="47" t="s">
-        <v>20</v>
+      <c r="K21" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,13 +3138,13 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="47" t="s">
-        <v>20</v>
+      <c r="K22" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,387 +3155,387 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="47" t="s">
-        <v>20</v>
+      <c r="K23" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>74</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="47" t="s">
-        <v>20</v>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>75</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="47" t="s">
-        <v>20</v>
+      <c r="I25" s="44"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>76</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="47" t="s">
-        <v>20</v>
+      <c r="K26" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>77</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="47" t="s">
-        <v>20</v>
+      <c r="I27" s="44"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>78</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47" t="s">
-        <v>20</v>
+      <c r="K28" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>79</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="47" t="s">
-        <v>20</v>
+      <c r="K29" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>80</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47" t="s">
-        <v>20</v>
+      <c r="K30" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>81</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="47" t="s">
-        <v>20</v>
+      <c r="K31" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>82</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="47" t="s">
-        <v>20</v>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>83</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="47" t="s">
-        <v>20</v>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>84</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="47" t="s">
-        <v>20</v>
+      <c r="K34" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>85</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="47" t="s">
-        <v>20</v>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>86</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="47" t="s">
-        <v>20</v>
+      <c r="K36" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>87</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="47" t="s">
-        <v>20</v>
+      <c r="K37" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>88</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47" t="s">
-        <v>20</v>
+      <c r="K38" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>89</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="47" t="s">
-        <v>20</v>
+      <c r="I39" s="44"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>90</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="47" t="s">
-        <v>20</v>
+      <c r="I40" s="44"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>91</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="47" t="s">
-        <v>20</v>
+      <c r="I41" s="44"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>92</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47" t="s">
-        <v>20</v>
+      <c r="K42" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>93</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="47" t="s">
-        <v>20</v>
+      <c r="I43" s="44"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>94</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="47" t="s">
-        <v>20</v>
+      <c r="K44" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>95</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="47" t="s">
-        <v>20</v>
+      <c r="I45" s="44"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3566,16 +3543,16 @@
         <v>96</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="47" t="s">
-        <v>20</v>
+      <c r="K46" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,16 +3560,16 @@
         <v>97</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="47" t="s">
-        <v>20</v>
+      <c r="K47" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,16 +3577,16 @@
         <v>98</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="47" t="s">
-        <v>20</v>
+      <c r="K48" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,16 +3594,16 @@
         <v>99</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="47" t="s">
-        <v>20</v>
+      <c r="K49" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3634,16 +3611,16 @@
         <v>100</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="47" t="s">
-        <v>20</v>
+      <c r="K50" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,16 +3628,16 @@
         <v>101</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="47" t="s">
-        <v>20</v>
+      <c r="K51" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3668,16 +3645,16 @@
         <v>102</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="47" t="s">
-        <v>20</v>
+      <c r="K52" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,16 +3662,16 @@
         <v>103</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="47" t="s">
-        <v>20</v>
+      <c r="K53" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3702,16 +3679,16 @@
         <v>104</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="47" t="s">
-        <v>20</v>
+      <c r="K54" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3719,16 +3696,16 @@
         <v>105</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="47" t="s">
-        <v>20</v>
+      <c r="K55" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,16 +3713,16 @@
         <v>106</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="47" t="s">
-        <v>20</v>
+      <c r="K56" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,16 +3730,16 @@
         <v>107</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="47" t="s">
-        <v>20</v>
+      <c r="K57" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3770,16 +3747,16 @@
         <v>108</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="47" t="s">
-        <v>20</v>
+      <c r="K58" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,16 +3764,16 @@
         <v>109</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="47" t="s">
-        <v>20</v>
+      <c r="K59" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3804,16 +3781,16 @@
         <v>110</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="47" t="s">
-        <v>20</v>
+      <c r="K60" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,16 +3798,16 @@
         <v>111</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="47" t="s">
-        <v>20</v>
+      <c r="K61" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3838,16 +3815,16 @@
         <v>112</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="47" t="s">
-        <v>20</v>
+      <c r="K62" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3855,16 +3832,16 @@
         <v>113</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="47" t="s">
-        <v>20</v>
+      <c r="K63" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,16 +3849,16 @@
         <v>114</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="47" t="s">
-        <v>20</v>
+      <c r="K64" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3889,16 +3866,16 @@
         <v>115</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="47" t="s">
-        <v>20</v>
+      <c r="K65" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,16 +3883,16 @@
         <v>116</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="47" t="s">
-        <v>20</v>
+      <c r="K66" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,16 +3900,16 @@
         <v>117</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="47" t="s">
-        <v>20</v>
+      <c r="K67" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,16 +3917,16 @@
         <v>118</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="47" t="s">
-        <v>20</v>
+      <c r="K68" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,16 +3934,16 @@
         <v>119</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="47" t="s">
-        <v>20</v>
+      <c r="K69" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3974,25 +3951,25 @@
         <v>120</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="54" t="s">
+      <c r="K70" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -4002,7 +3979,7 @@
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -4016,21 +3993,28 @@
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -4045,13 +4029,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4082,152 +4059,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="D2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="61"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="68"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="E9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="F9" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="I9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="86" t="s">
+      <c r="G10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="87"/>
-    </row>
-    <row r="10" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,13 +4213,13 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="47" t="s">
-        <v>20</v>
+      <c r="K11" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,13 +4230,13 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="47" t="s">
-        <v>20</v>
+      <c r="K12" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,13 +4247,13 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="47" t="s">
-        <v>20</v>
+      <c r="K13" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,13 +4264,13 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="47" t="s">
-        <v>20</v>
+      <c r="K14" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,13 +4281,13 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="47" t="s">
-        <v>20</v>
+      <c r="K15" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4323,13 +4298,13 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="47" t="s">
-        <v>20</v>
+      <c r="K16" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4340,13 +4315,13 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="47" t="s">
-        <v>20</v>
+      <c r="K17" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,13 +4332,13 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="47" t="s">
-        <v>20</v>
+      <c r="K18" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,13 +4349,13 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="47" t="s">
-        <v>20</v>
+      <c r="K19" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,13 +4366,13 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="47" t="s">
-        <v>20</v>
+      <c r="K20" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,13 +4383,13 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="47" t="s">
-        <v>20</v>
+      <c r="K21" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4425,13 +4400,13 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="47" t="s">
-        <v>20</v>
+      <c r="K22" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4442,387 +4417,387 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="47" t="s">
-        <v>20</v>
+      <c r="K23" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>134</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="47" t="s">
-        <v>20</v>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>135</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="47" t="s">
-        <v>20</v>
+      <c r="I25" s="44"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>136</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="25"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="47" t="s">
-        <v>20</v>
+      <c r="K26" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>137</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="47" t="s">
-        <v>20</v>
+      <c r="I27" s="44"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>138</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="25"/>
       <c r="I28" s="23"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47" t="s">
-        <v>20</v>
+      <c r="K28" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>139</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="47" t="s">
-        <v>20</v>
+      <c r="K29" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>140</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="25"/>
       <c r="I30" s="23"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47" t="s">
-        <v>20</v>
+      <c r="K30" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>141</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="25"/>
       <c r="I31" s="23"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="47" t="s">
-        <v>20</v>
+      <c r="K31" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>142</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="47" t="s">
-        <v>20</v>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>143</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="47" t="s">
-        <v>20</v>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>144</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="25"/>
       <c r="I34" s="23"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="47" t="s">
-        <v>20</v>
+      <c r="K34" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>145</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="47" t="s">
-        <v>20</v>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>146</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="47" t="s">
-        <v>20</v>
+      <c r="K36" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>147</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="25"/>
       <c r="I37" s="23"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="47" t="s">
-        <v>20</v>
+      <c r="K37" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>148</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="25"/>
       <c r="I38" s="23"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47" t="s">
-        <v>20</v>
+      <c r="K38" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>149</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="47" t="s">
-        <v>20</v>
+      <c r="I39" s="44"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>150</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="47" t="s">
-        <v>20</v>
+      <c r="I40" s="44"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>151</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="47" t="s">
-        <v>20</v>
+      <c r="I41" s="44"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>152</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="25"/>
       <c r="I42" s="23"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47" t="s">
-        <v>20</v>
+      <c r="K42" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>153</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="47" t="s">
-        <v>20</v>
+      <c r="I43" s="44"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>154</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="25"/>
       <c r="I44" s="23"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="47" t="s">
-        <v>20</v>
+      <c r="K44" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>155</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="47" t="s">
-        <v>20</v>
+      <c r="I45" s="44"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4830,16 +4805,16 @@
         <v>156</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="25"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="47" t="s">
-        <v>20</v>
+      <c r="K46" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4847,16 +4822,16 @@
         <v>157</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="25"/>
       <c r="I47" s="23"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="47" t="s">
-        <v>20</v>
+      <c r="K47" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,16 +4839,16 @@
         <v>158</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="25"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="47" t="s">
-        <v>20</v>
+      <c r="K48" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4881,16 +4856,16 @@
         <v>159</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="25"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="47" t="s">
-        <v>20</v>
+      <c r="K49" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,16 +4873,16 @@
         <v>160</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="25"/>
       <c r="I50" s="23"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="47" t="s">
-        <v>20</v>
+      <c r="K50" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4915,16 +4890,16 @@
         <v>161</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="25"/>
       <c r="I51" s="23"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="47" t="s">
-        <v>20</v>
+      <c r="K51" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4932,16 +4907,16 @@
         <v>162</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="25"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="47" t="s">
-        <v>20</v>
+      <c r="K52" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4949,16 +4924,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="25"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="47" t="s">
-        <v>20</v>
+      <c r="K53" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,16 +4941,16 @@
         <v>164</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="25"/>
       <c r="I54" s="23"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="47" t="s">
-        <v>20</v>
+      <c r="K54" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,16 +4958,16 @@
         <v>165</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="25"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="47" t="s">
-        <v>20</v>
+      <c r="K55" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5000,16 +4975,16 @@
         <v>166</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="25"/>
       <c r="I56" s="23"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="47" t="s">
-        <v>20</v>
+      <c r="K56" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5017,16 +4992,16 @@
         <v>167</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="25"/>
       <c r="I57" s="23"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="47" t="s">
-        <v>20</v>
+      <c r="K57" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5034,16 +5009,16 @@
         <v>168</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="25"/>
       <c r="I58" s="23"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="47" t="s">
-        <v>20</v>
+      <c r="K58" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5051,16 +5026,16 @@
         <v>169</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="25"/>
       <c r="I59" s="23"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="47" t="s">
-        <v>20</v>
+      <c r="K59" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,16 +5043,16 @@
         <v>170</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="25"/>
       <c r="I60" s="23"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="47" t="s">
-        <v>20</v>
+      <c r="K60" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5085,16 +5060,16 @@
         <v>171</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="25"/>
       <c r="I61" s="23"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="47" t="s">
-        <v>20</v>
+      <c r="K61" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5102,16 +5077,16 @@
         <v>172</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="25"/>
       <c r="I62" s="23"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="47" t="s">
-        <v>20</v>
+      <c r="K62" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,16 +5094,16 @@
         <v>173</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="25"/>
       <c r="I63" s="23"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="47" t="s">
-        <v>20</v>
+      <c r="K63" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5136,16 +5111,16 @@
         <v>174</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="25"/>
       <c r="I64" s="23"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="47" t="s">
-        <v>20</v>
+      <c r="K64" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,16 +5128,16 @@
         <v>175</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="24"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="25"/>
       <c r="I65" s="23"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="47" t="s">
-        <v>20</v>
+      <c r="K65" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,16 +5145,16 @@
         <v>176</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="25"/>
       <c r="I66" s="23"/>
       <c r="J66" s="26"/>
-      <c r="K66" s="47" t="s">
-        <v>20</v>
+      <c r="K66" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5187,16 +5162,16 @@
         <v>177</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="25"/>
       <c r="I67" s="23"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="47" t="s">
-        <v>20</v>
+      <c r="K67" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5204,16 +5179,16 @@
         <v>178</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="25"/>
       <c r="I68" s="23"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="47" t="s">
-        <v>20</v>
+      <c r="K68" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,16 +5196,16 @@
         <v>179</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="25"/>
       <c r="I69" s="23"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="47" t="s">
-        <v>20</v>
+      <c r="K69" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5238,25 +5213,25 @@
         <v>180</v>
       </c>
       <c r="B70" s="30"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
-      <c r="K70" s="54" t="s">
+      <c r="K70" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -5266,7 +5241,7 @@
     </row>
     <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -5280,28 +5255,21 @@
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="C74:D74"/>
@@ -5316,6 +5284,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
